--- a/week_03/final_project_data/var_dictionary.xlsx
+++ b/week_03/final_project_data/var_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariagabrielaayala/Desktop/Autumn 2022/Data Visualization/CAPP30239_FA22/week_03/final_project_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42322FD4-E508-7842-958D-7460CD17810F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CD86E8-DF1F-6346-A8B3-25890D8E1FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="720" yWindow="500" windowWidth="28660" windowHeight="17480" xr2:uid="{7E35FF26-7677-8A47-81F6-6FE19EF6832C}"/>
   </bookViews>
@@ -66,10 +66,6 @@
     <t>s5_pe30</t>
   </si>
   <si>
-    <t>30. ¿Cuál es el nivel de instrucción y año más
-alto que aprobó (…)?</t>
-  </si>
-  <si>
     <t>s6_ae07</t>
   </si>
   <si>
@@ -335,9 +331,6 @@
   </si>
   <si>
     <t>21. (...) Do you suffer from any?</t>
-  </si>
-  <si>
-    <t>07. What is the highest level of education you attained (...)?</t>
   </si>
   <si>
     <r>
@@ -384,6 +377,12 @@
       </rPr>
       <t xml:space="preserve"> Translated from the variable dictionary of Ecuador's Social Registry from April 2021 (https://www.datosabiertos.gob.ec/dataset/conjunto-de-datos-personas-del-registro-social/resource/b98866d8-7023-4e76-9cca-33a9b7615762). Variables out of the project's scope are excluded from this dictionary.</t>
     </r>
+  </si>
+  <si>
+    <t>30. What is the highest level of education you attained (...)?</t>
+  </si>
+  <si>
+    <t>07. In this job occupation (….) are you or were you:?</t>
   </si>
 </sst>
 </file>
@@ -818,7 +817,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -832,19 +831,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -852,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -869,16 +868,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -886,16 +885,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -903,16 +902,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -920,16 +919,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -937,16 +936,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -954,16 +953,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -971,16 +970,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -988,68 +987,68 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -1075,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108CB7B9-5FF4-2447-A8C2-B344396AB9F9}">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:B54"/>
+    <sheetView topLeftCell="A36" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1088,16 +1087,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1105,13 +1104,13 @@
         <v>3</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1121,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1131,21 +1130,21 @@
         <v>99</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1155,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1165,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1175,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1185,7 +1184,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1195,7 +1194,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1205,7 +1204,7 @@
         <v>99</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1213,13 +1212,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1229,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1239,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -1249,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1259,7 +1258,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1269,7 +1268,7 @@
         <v>6</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1279,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1289,7 +1288,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1299,7 +1298,7 @@
         <v>99</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1307,13 +1306,13 @@
         <v>6</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5">
         <v>0</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1323,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1333,7 +1332,7 @@
         <v>99</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1341,13 +1340,13 @@
         <v>7</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1357,7 +1356,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1367,7 +1366,7 @@
         <v>99</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1375,13 +1374,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="3">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1391,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1401,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1411,7 +1410,7 @@
         <v>4</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1421,7 +1420,7 @@
         <v>99</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1429,13 +1428,13 @@
         <v>9</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="5">
         <v>1</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -1445,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1455,7 +1454,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -1465,7 +1464,7 @@
         <v>4</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1475,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1485,7 +1484,7 @@
         <v>6</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1495,7 +1494,7 @@
         <v>7</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1505,7 +1504,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1515,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1525,7 +1524,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -1535,21 +1534,21 @@
         <v>99</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="5">
         <v>1</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1559,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1569,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,7 +1578,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1589,7 +1588,7 @@
         <v>5</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1599,7 +1598,7 @@
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1609,7 +1608,7 @@
         <v>7</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1619,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1629,7 +1628,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -1639,7 +1638,7 @@
         <v>10</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1649,7 +1648,7 @@
         <v>11</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1659,12 +1658,12 @@
         <v>99</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1680,12 +1679,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A5:A11"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="B12:B20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A24:A26"/>
@@ -1697,6 +1690,12 @@
     <mergeCell ref="B32:B42"/>
     <mergeCell ref="A43:A54"/>
     <mergeCell ref="B43:B54"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="A5:A11"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="A12:A20"/>
+    <mergeCell ref="B12:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
